--- a/CashFlow/ZM_cashflow.xlsx
+++ b/CashFlow/ZM_cashflow.xlsx
@@ -321,19 +321,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3481000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7861000.0</v>
+        <v>31000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>28521000.0</v>
+        <v>36562000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>42106000.0</v>
+        <v>46262000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>52573000.0</v>
+        <v>55485000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>58248000.0</v>
